--- a/Data/Xls files and READMEs/Study sites Kvitek WDFW NWFSC.xlsx
+++ b/Data/Xls files and READMEs/Study sites Kvitek WDFW NWFSC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="460" windowWidth="41620" windowHeight="20900" tabRatio="500"/>
+    <workbookView xWindow="12020" yWindow="1060" windowWidth="41620" windowHeight="20900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
   <si>
     <t>Neah Bay</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Cape Johnson/Bluff Point</t>
   </si>
   <si>
-    <t>Carrol Island/ Sea Lion Rock Sandy Island</t>
-  </si>
-  <si>
     <t>Perkins Reef (Rock 443)</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
     <t xml:space="preserve">Point Of Arches </t>
   </si>
   <si>
-    <t>West End Of Bodelteh Islands Duk Point</t>
-  </si>
-  <si>
     <t>Father And Son</t>
   </si>
   <si>
@@ -191,9 +185,6 @@
     <t>https://www.nps.gov/olym/planyourvisit/upload/OLYMmap1.pdf</t>
   </si>
   <si>
-    <t>Southeast of Ozette Island, Ozette/Cape Alava/Bodelteh Islands, West End Of Bodelteh Islands Duk Point</t>
-  </si>
-  <si>
     <t xml:space="preserve">Father And Son, Point Of Arches </t>
   </si>
   <si>
@@ -207,13 +198,136 @@
   </si>
   <si>
     <t>Anderson Pt., Anderson Pt. (Osprey I), Makah Bay</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>Site code for analysis</t>
+  </si>
+  <si>
+    <t>Makah Bay/Waatch Pt.</t>
+  </si>
+  <si>
+    <t>Portage Head/Anderson Pt</t>
+  </si>
+  <si>
+    <t>Anderson Point, Makah Bay/Waatch Pt., Portage Head/Anderson Pt</t>
+  </si>
+  <si>
+    <t>Duk Point</t>
+  </si>
+  <si>
+    <t>West End Of Bodelteh Islands</t>
+  </si>
+  <si>
+    <t>Ozette River</t>
+  </si>
+  <si>
+    <t>W Bodelteh</t>
+  </si>
+  <si>
+    <t>Ozette/Cape Alava</t>
+  </si>
+  <si>
+    <t>S.Ozette Island</t>
+  </si>
+  <si>
+    <t>Ozette/Cape Alava/Bodelteh Islands, West End Of Bodelteh Islands, W Bodelteh, Ozette/Cape Alava</t>
+  </si>
+  <si>
+    <t>White Rock</t>
+  </si>
+  <si>
+    <t>Submarine Rock</t>
+  </si>
+  <si>
+    <t>North Point</t>
+  </si>
+  <si>
+    <t>Yellow B Area</t>
+  </si>
+  <si>
+    <t>Off Yellow B</t>
+  </si>
+  <si>
+    <t>Cedar Creek</t>
+  </si>
+  <si>
+    <t>Carroll Island</t>
+  </si>
+  <si>
+    <t>Carrol Island/ Sea Lion Rock</t>
+  </si>
+  <si>
+    <t>Sandy Island</t>
+  </si>
+  <si>
+    <t>Bluff Point</t>
+  </si>
+  <si>
+    <t>South of Cape Johnson/Chilean Memorial, Cape Johnson, S. Cape Johnson</t>
+  </si>
+  <si>
+    <t>S. Cape Johnson</t>
+  </si>
+  <si>
+    <t>CJR3</t>
+  </si>
+  <si>
+    <t>James Island</t>
+  </si>
+  <si>
+    <t>Quillayute Needles</t>
+  </si>
+  <si>
+    <t>Giants Graveyard</t>
+  </si>
+  <si>
+    <t>Giants Graveyard/Teahwhit Head, Giants Graveyard</t>
+  </si>
+  <si>
+    <t>Toleak/Strawberry</t>
+  </si>
+  <si>
+    <t>Hoh R/Perkins R</t>
+  </si>
+  <si>
+    <t>Destruction Is.</t>
+  </si>
+  <si>
+    <t>Destruction Island, Destruction Is.</t>
+  </si>
+  <si>
+    <t>Willoughby Rk.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -260,6 +374,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -295,7 +416,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -306,6 +427,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -585,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -599,24 +721,27 @@
     <col min="6" max="6" width="86.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -624,33 +749,39 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -658,33 +789,39 @@
         <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -695,13 +832,16 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -709,16 +849,19 @@
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -726,16 +869,19 @@
         <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -751,16 +897,19 @@
       <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -768,8 +917,11 @@
       <c r="G10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -783,47 +935,50 @@
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -831,41 +986,41 @@
         <v>9</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C18" t="s">
-        <v>30</v>
+      <c r="C18" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>35</v>
+      <c r="C19" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>36</v>
+      <c r="C20" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C21" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C22" s="6" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -875,42 +1030,165 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C24" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="7" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="7" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C30" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Xls files and READMEs/Study sites Kvitek WDFW NWFSC.xlsx
+++ b/Data/Xls files and READMEs/Study sites Kvitek WDFW NWFSC.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameal.samhouri/Documents/Github/OCNMS/Data/Xls files and READMEs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12020" yWindow="1060" windowWidth="41620" windowHeight="20900" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="146">
   <si>
     <t>Neah Bay</t>
   </si>
@@ -185,9 +180,6 @@
     <t>https://www.nps.gov/olym/planyourvisit/upload/OLYMmap1.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">Father And Son, Point Of Arches </t>
-  </si>
-  <si>
     <t>Shipwreck Point</t>
   </si>
   <si>
@@ -233,9 +225,6 @@
     <t>Portage Head/Anderson Pt</t>
   </si>
   <si>
-    <t>Anderson Point, Makah Bay/Waatch Pt., Portage Head/Anderson Pt</t>
-  </si>
-  <si>
     <t>Duk Point</t>
   </si>
   <si>
@@ -254,9 +243,6 @@
     <t>S.Ozette Island</t>
   </si>
   <si>
-    <t>Ozette/Cape Alava/Bodelteh Islands, West End Of Bodelteh Islands, W Bodelteh, Ozette/Cape Alava</t>
-  </si>
-  <si>
     <t>White Rock</t>
   </si>
   <si>
@@ -287,9 +273,6 @@
     <t>Bluff Point</t>
   </si>
   <si>
-    <t>South of Cape Johnson/Chilean Memorial, Cape Johnson, S. Cape Johnson</t>
-  </si>
-  <si>
     <t>S. Cape Johnson</t>
   </si>
   <si>
@@ -317,10 +300,166 @@
     <t>Destruction Is.</t>
   </si>
   <si>
-    <t>Destruction Island, Destruction Is.</t>
-  </si>
-  <si>
     <t>Willoughby Rk.</t>
+  </si>
+  <si>
+    <t>Offshore Yellow Banks</t>
+  </si>
+  <si>
+    <t>1 MILE W. OF HOH HEAD (IN OPEN WATER)</t>
+  </si>
+  <si>
+    <t>Alexander Island</t>
+  </si>
+  <si>
+    <t>Bahobohosh Point</t>
+  </si>
+  <si>
+    <t>Browns Point</t>
+  </si>
+  <si>
+    <t>Chilean Memorial</t>
+  </si>
+  <si>
+    <t>DESTRUCTION ISLAND WEST END</t>
+  </si>
+  <si>
+    <t>DESTRUCTION I.  EAST END</t>
+  </si>
+  <si>
+    <t>Destruction Island, Destruction Is., DESTRUCTION I.  EAST END, DESTRUCTION ISLAND WEST END</t>
+  </si>
+  <si>
+    <t>Fuca Pillar</t>
+  </si>
+  <si>
+    <t>Hogsback</t>
+  </si>
+  <si>
+    <t>Hoh Head</t>
+  </si>
+  <si>
+    <t>HOH RIVER MOUTH</t>
+  </si>
+  <si>
+    <t>INSHORE KELP BED EAST OF WHITE ROCK</t>
+  </si>
+  <si>
+    <t>INSHORE OF FATHER AND SON</t>
+  </si>
+  <si>
+    <t>Father And Son, Point Of Arches, INSHORE OF FATHER AND SON</t>
+  </si>
+  <si>
+    <t>INSHORE WHITE ROCK</t>
+  </si>
+  <si>
+    <t>MIDDLE Rk/DIAMOND ROCK</t>
+  </si>
+  <si>
+    <t>MIDWAY BEACH</t>
+  </si>
+  <si>
+    <t>MIDWAY POINT</t>
+  </si>
+  <si>
+    <t>Mushroom Rock</t>
+  </si>
+  <si>
+    <t>N. OF ANDERSON POINT</t>
+  </si>
+  <si>
+    <t>N. OF CAPE JOHNSON</t>
+  </si>
+  <si>
+    <t>N. OF HOH HEAD</t>
+  </si>
+  <si>
+    <t>NORTH BROWN PT.</t>
+  </si>
+  <si>
+    <t>NORTH KAYOSTLA BEACH</t>
+  </si>
+  <si>
+    <t>NORTH ROCK</t>
+  </si>
+  <si>
+    <t>NORTH STEAMBOAT CREEK</t>
+  </si>
+  <si>
+    <t>OZETTE I.</t>
+  </si>
+  <si>
+    <t>OZETTE ISLAND</t>
+  </si>
+  <si>
+    <t>Rialto Beach</t>
+  </si>
+  <si>
+    <t>ROCK 443 COMPLEX</t>
+  </si>
+  <si>
+    <t>RUBY BEACH</t>
+  </si>
+  <si>
+    <t>S. CAPE JOHNSON/CHILEAN MEMORIAL</t>
+  </si>
+  <si>
+    <t>S. OF CHILEAN MEMORIAL</t>
+  </si>
+  <si>
+    <t>South of Cape Johnson/Chilean Memorial, Cape Johnson, S. Cape Johnson, CAPE JOHNSON/BLUFF POINT, Chilean Memorial, N. OF CAPE JOHNSON, S. CAPE JOHNSON/CHILEAN MEMORIAL, S. OF CHILEAN MEMORIAL</t>
+  </si>
+  <si>
+    <t>S. OF OZETTE RIVER</t>
+  </si>
+  <si>
+    <t>S. PORTAGE HEAD</t>
+  </si>
+  <si>
+    <t>SANDY ISLET/JAGGED ISLAND AREA</t>
+  </si>
+  <si>
+    <t>http://www.alertdiver.com/Washingtons_Olympic_Peninsula</t>
+  </si>
+  <si>
+    <t>Slant Rock</t>
+  </si>
+  <si>
+    <t>Tatoosh Island, Mushroom Rock, Slant Rock</t>
+  </si>
+  <si>
+    <t>SOUTH END OZETTE ISLAND</t>
+  </si>
+  <si>
+    <t>SOUTH OF OZETTE RIVER</t>
+  </si>
+  <si>
+    <t>SOUTH OF PORTAGE HEAD</t>
+  </si>
+  <si>
+    <t>SOUTH RAFT RIVER</t>
+  </si>
+  <si>
+    <t>UMATILLA REEF</t>
+  </si>
+  <si>
+    <t>Waddah Island</t>
+  </si>
+  <si>
+    <t>WAATCH PT.</t>
+  </si>
+  <si>
+    <t>Anderson Point, Makah Bay/Waatch Pt., Portage Head/Anderson Pt, Bahobohosh Point, MAKAH BAY, N. OF ANDERSON POINT, S. PORTAGE HEAD, SOUTH OF PORTAGE HEAD, WAATCH PT.</t>
+  </si>
+  <si>
+    <t>WEDDING ROCKS</t>
+  </si>
+  <si>
+    <t>Ozette/Cape Alava/Bodelteh Islands, West End Of Bodelteh Islands, W Bodelteh, Ozette/Cape Alava, OZETTE I., OZETTE ISLAND, Ozette River, S.Ozette Island, Southeast of Ozette Island, S. OF OZETTE RIVER, SOUTH END OZETTE ISLAND, SOUTH OF OZETTE RIVER, UMATILLA REEF, WEST END OF BODELTEH</t>
+  </si>
+  <si>
+    <t>WEST END OF BODELTEH</t>
   </si>
 </sst>
 </file>
@@ -411,8 +550,64 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -429,9 +624,65 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -487,7 +738,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -522,7 +773,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -699,7 +950,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -707,13 +958,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.83203125" bestFit="1" customWidth="1"/>
@@ -721,7 +972,7 @@
     <col min="6" max="6" width="86.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>47</v>
       </c>
@@ -738,175 +989,175 @@
         <v>48</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>49</v>
+      <c r="C3" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>20</v>
+      <c r="C4" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
+      <c r="C6" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
+      <c r="C8" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>24</v>
+      <c r="C9" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>44</v>
@@ -918,15 +1169,15 @@
         <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>25</v>
+      <c r="C11" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>0</v>
@@ -935,266 +1186,515 @@
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="C21" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="C22" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="C23" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="C24" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="C25" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="C26" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="C27" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="C28" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="C29" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="C30" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="C31" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="C32" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="6" t="s">
+    <row r="83" spans="3:3">
+      <c r="C83" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C30" s="5" t="s">
+    <row r="95" spans="3:3">
+      <c r="C95" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="5" t="s">
+    <row r="102" spans="3:3">
+      <c r="C102" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="5" t="s">
-        <v>97</v>
+    <row r="103" spans="3:3">
+      <c r="C103" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A19">
-    <sortCondition ref="A1:A19"/>
+  <sortState ref="C2:C55">
+    <sortCondition ref="C2:C55"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Data/Xls files and READMEs/Study sites Kvitek WDFW NWFSC.xlsx
+++ b/Data/Xls files and READMEs/Study sites Kvitek WDFW NWFSC.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="147">
   <si>
     <t>Neah Bay</t>
   </si>
@@ -408,9 +408,6 @@
     <t>S. OF CHILEAN MEMORIAL</t>
   </si>
   <si>
-    <t>South of Cape Johnson/Chilean Memorial, Cape Johnson, S. Cape Johnson, CAPE JOHNSON/BLUFF POINT, Chilean Memorial, N. OF CAPE JOHNSON, S. CAPE JOHNSON/CHILEAN MEMORIAL, S. OF CHILEAN MEMORIAL</t>
-  </si>
-  <si>
     <t>S. OF OZETTE RIVER</t>
   </si>
   <si>
@@ -450,9 +447,6 @@
     <t>WAATCH PT.</t>
   </si>
   <si>
-    <t>Anderson Point, Makah Bay/Waatch Pt., Portage Head/Anderson Pt, Bahobohosh Point, MAKAH BAY, N. OF ANDERSON POINT, S. PORTAGE HEAD, SOUTH OF PORTAGE HEAD, WAATCH PT.</t>
-  </si>
-  <si>
     <t>WEDDING ROCKS</t>
   </si>
   <si>
@@ -460,6 +454,15 @@
   </si>
   <si>
     <t>WEST END OF BODELTEH</t>
+  </si>
+  <si>
+    <t>Shi Shi Beach</t>
+  </si>
+  <si>
+    <t>Anderson Point, Makah Bay/Waatch Pt., Portage Head/Anderson Pt, Bahobohosh Point, MAKAH BAY, N. OF ANDERSON POINT, S. PORTAGE HEAD, SOUTH OF PORTAGE HEAD, WAATCH PT., Shi Shi Beach</t>
+  </si>
+  <si>
+    <t>South of Cape Johnson/Chilean Memorial, Cape Johnson, S. Cape Johnson, CAPE JOHNSON/BLUFF POINT, Chilean Memorial, N. OF CAPE JOHNSON, S. CAPE JOHNSON/CHILEAN MEMORIAL, S. OF CHILEAN MEMORIAL, BLUFF POINT</t>
   </si>
 </sst>
 </file>
@@ -550,8 +553,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -624,7 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -654,6 +661,8 @@
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -683,6 +692,8 @@
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -958,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1043,7 +1054,7 @@
         <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>6</v>
@@ -1063,7 +1074,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>5</v>
@@ -1083,7 +1094,7 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>4</v>
@@ -1096,7 +1107,7 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>82</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1123,7 +1134,7 @@
         <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G8" t="s">
         <v>55</v>
@@ -1143,7 +1154,7 @@
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>9</v>
@@ -1251,7 +1262,7 @@
         <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1532,12 +1543,12 @@
     </row>
     <row r="73" spans="3:3">
       <c r="C73" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="3:3">
@@ -1552,7 +1563,7 @@
     </row>
     <row r="77" spans="3:3">
       <c r="C77" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="3:3">
@@ -1562,126 +1573,131 @@
     </row>
     <row r="79" spans="3:3">
       <c r="C79" s="6" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" s="6" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="6" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" s="6" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" s="6" t="s">
-        <v>135</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86" spans="3:3">
-      <c r="C86" s="5" t="s">
-        <v>138</v>
+      <c r="C86" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="3:3">
-      <c r="C88" s="6" t="s">
+    <row r="89" spans="3:3">
+      <c r="C89" s="6" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="3:3">
-      <c r="C89" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" s="5" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="91" spans="3:3">
-      <c r="C91" s="6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" s="5" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="93" spans="3:3">
-      <c r="C93" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3">
-      <c r="C94" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="95" spans="3:3">
-      <c r="C95" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3">
-      <c r="C96" s="6" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" s="6" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="98" spans="3:3">
-      <c r="C98" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" s="5" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" s="5" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" s="5" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" s="5" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104" s="5" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Data/Xls files and READMEs/Study sites Kvitek WDFW NWFSC.xlsx
+++ b/Data/Xls files and READMEs/Study sites Kvitek WDFW NWFSC.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14140" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Site assignments June 2017" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="158">
   <si>
     <t>Neah Bay</t>
   </si>
@@ -463,6 +464,39 @@
   </si>
   <si>
     <t>South of Cape Johnson/Chilean Memorial, Cape Johnson, S. Cape Johnson, CAPE JOHNSON/BLUFF POINT, Chilean Memorial, N. OF CAPE JOHNSON, S. CAPE JOHNSON/CHILEAN MEMORIAL, S. OF CHILEAN MEMORIAL, BLUFF POINT</t>
+  </si>
+  <si>
+    <t>Regional borders for summing otter counts</t>
+  </si>
+  <si>
+    <t>Quillayute River mouth (La Push) south to Toleak Point</t>
+  </si>
+  <si>
+    <t>Norwegian Memorial south to Quillayute River mouth (La Push); same as Rock 305</t>
+  </si>
+  <si>
+    <t>Norwegian Memorial south to Quillayute River mouth (La Push); same as Cape Johnson</t>
+  </si>
+  <si>
+    <t>Ozette River mouth south to Norwegian Memorial</t>
+  </si>
+  <si>
+    <t>North end of Shi Shi Beach south to Ozette River mouth</t>
+  </si>
+  <si>
+    <t>Cape Flattery South to north end of Shi Shi Beach</t>
+  </si>
+  <si>
+    <t>Cape Flattery north and east to Chibadehl Rocks; same as Chibadehl Rocks</t>
+  </si>
+  <si>
+    <t>Cape Flattery north and east to Chibadehl Rocks; same as Tatoosh Island</t>
+  </si>
+  <si>
+    <t>Chibadehl Rocks east to Neah Bay</t>
+  </si>
+  <si>
+    <t>Toleak Point south to Point Grenville</t>
   </si>
 </sst>
 </file>
@@ -553,8 +587,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -631,7 +679,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="77">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -663,6 +711,13 @@
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -694,6 +749,13 @@
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -961,7 +1023,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -969,10 +1031,789 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="86.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="C21" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="C22" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="C23" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="C24" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="C25" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="C26" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="C27" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="C28" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="C29" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="C30" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="C31" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="C32" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Data/Xls files and READMEs/Study sites Kvitek WDFW NWFSC.xlsx
+++ b/Data/Xls files and READMEs/Study sites Kvitek WDFW NWFSC.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14140" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="13640" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Site assignments June 2017" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Site borders June 2017" sheetId="2" r:id="rId1"/>
+    <sheet name="Site assignments June 2017" sheetId="3" r:id="rId2"/>
+    <sheet name="Site assignments prior June 201" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="169">
   <si>
     <t>Neah Bay</t>
   </si>
@@ -497,6 +498,39 @@
   </si>
   <si>
     <t>Toleak Point south to Point Grenville</t>
+  </si>
+  <si>
+    <t>CJ</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Bahobohosh+Point/@48.3284013,-124.6627118,17z/data=!3m1!4b1!4m5!3m4!1s0x548ebee34afebfef:0xc1642042bfd7662c!8m2!3d48.3283978!4d-124.6605178</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Archawat+Creek/@48.3644869,-124.7103112,15z/data=!3m1!4b1!4m5!3m4!1s0x548eb8dc28bd1029:0x450ef72dad8519e8!8m2!3d48.364473!4d-124.701535</t>
+  </si>
+  <si>
+    <t>http://www.wta.org/go-hiking/hikes/kalaloch-browns-point</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Carroll+Island/@47.9994946,-124.7240311,12.03z/data=!4m5!3m4!1s0x548e8241d00fa155:0xa5e24ee6c984e5b2!8m2!3d48.0050687!4d-124.724946</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Norwegian+Memorial/@48.02117,-124.7812138,12.1z/data=!4m5!3m4!1s0x548e839cdfaacffd:0xdd33196e788484d3!8m2!3d48.0376159!4d-124.6818113</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Diamond+Rock/@47.7561922,-124.5196891,12z/data=!4m5!3m4!1s0x548dd8896f9ec10f:0x9dfbd57d85c7279c!8m2!3d47.7561886!4d-124.4496459</t>
+  </si>
+  <si>
+    <t>Norwegian Memorial south to James Island; same as Cape Johnson</t>
+  </si>
+  <si>
+    <t>Norwegian Memorial south to James Island; same as Rock 305</t>
+  </si>
+  <si>
+    <t>James Island south to Toleak Point</t>
+  </si>
+  <si>
+    <t>TICR</t>
   </si>
 </sst>
 </file>
@@ -587,8 +621,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -679,7 +737,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="101">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -718,6 +776,18 @@
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -756,6 +826,18 @@
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1033,767 +1115,779 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="86.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="86.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G6" t="s">
-        <v>142</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" t="s">
-        <v>145</v>
-      </c>
-      <c r="H8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G9" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="G11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" t="s">
+      <c r="E12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" t="s">
+      <c r="E13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="2" t="s">
+      <c r="E14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
+      <c r="E15" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
+    </row>
+    <row r="18" spans="1:9">
+      <c r="E18" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
+    </row>
+    <row r="19" spans="1:9">
+      <c r="E19" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
+    </row>
+    <row r="20" spans="1:9">
+      <c r="E20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="C21" s="5" t="s">
+    </row>
+    <row r="21" spans="1:9">
+      <c r="E21" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="C22" s="6" t="s">
+    <row r="22" spans="1:9">
+      <c r="E22" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="C23" s="5" t="s">
+    <row r="23" spans="1:9">
+      <c r="E23" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="C24" s="6" t="s">
+    <row r="24" spans="1:9">
+      <c r="E24" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="C25" s="6" t="s">
+    <row r="25" spans="1:9">
+      <c r="E25" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="C26" s="5" t="s">
+    <row r="26" spans="1:9">
+      <c r="E26" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="C27" s="5" t="s">
+    <row r="27" spans="1:9">
+      <c r="E27" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="C28" s="5" t="s">
+    <row r="28" spans="1:9">
+      <c r="E28" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="C29" s="5" t="s">
+    <row r="29" spans="1:9">
+      <c r="E29" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="C30" s="5" t="s">
+    <row r="30" spans="1:9">
+      <c r="E30" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="C31" s="5" t="s">
+    <row r="31" spans="1:9">
+      <c r="E31" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="C32" s="6" t="s">
+    <row r="32" spans="1:9">
+      <c r="E32" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="5" t="s">
+    <row r="33" spans="5:5">
+      <c r="E33" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="5" t="s">
+    <row r="34" spans="5:5">
+      <c r="E34" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="3:3">
-      <c r="C35" s="5" t="s">
+    <row r="35" spans="5:5">
+      <c r="E35" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="3:3">
-      <c r="C36" s="5" t="s">
+    <row r="36" spans="5:5">
+      <c r="E36" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="3:3">
-      <c r="C37" s="5" t="s">
+    <row r="37" spans="5:5">
+      <c r="E37" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="3:3">
-      <c r="C38" s="5" t="s">
+    <row r="38" spans="5:5">
+      <c r="E38" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="3:3">
-      <c r="C39" s="6" t="s">
+    <row r="39" spans="5:5">
+      <c r="E39" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="3:3">
-      <c r="C40" s="6" t="s">
+    <row r="40" spans="5:5">
+      <c r="E40" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="3:3">
-      <c r="C41" s="5" t="s">
+    <row r="41" spans="5:5">
+      <c r="E41" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="3:3">
-      <c r="C42" s="5" t="s">
+    <row r="42" spans="5:5">
+      <c r="E42" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="3:3">
-      <c r="C43" s="5" t="s">
+    <row r="43" spans="5:5">
+      <c r="E43" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="3:3">
-      <c r="C44" s="7" t="s">
+    <row r="44" spans="5:5">
+      <c r="E44" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="3:3">
-      <c r="C45" s="7" t="s">
+    <row r="45" spans="5:5">
+      <c r="E45" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:3">
-      <c r="C46" s="7" t="s">
+    <row r="46" spans="5:5">
+      <c r="E46" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="3:3">
-      <c r="C47" s="7" t="s">
+    <row r="47" spans="5:5">
+      <c r="E47" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="3:3">
-      <c r="C48" s="5" t="s">
+    <row r="48" spans="5:5">
+      <c r="E48" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
-      <c r="C49" s="5" t="s">
+    <row r="49" spans="5:5">
+      <c r="E49" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="3:3">
-      <c r="C50" s="5" t="s">
+    <row r="50" spans="5:5">
+      <c r="E50" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="3:3">
-      <c r="C51" s="5" t="s">
+    <row r="51" spans="5:5">
+      <c r="E51" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="3:3">
-      <c r="C52" s="5" t="s">
+    <row r="52" spans="5:5">
+      <c r="E52" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="3:3">
-      <c r="C53" s="5" t="s">
+    <row r="53" spans="5:5">
+      <c r="E53" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="3:3">
-      <c r="C54" s="5" t="s">
+    <row r="54" spans="5:5">
+      <c r="E54" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="3:3">
-      <c r="C55" s="5" t="s">
+    <row r="55" spans="5:5">
+      <c r="E55" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="3:3">
-      <c r="C56" s="6" t="s">
+    <row r="56" spans="5:5">
+      <c r="E56" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="3:3">
-      <c r="C57" s="6" t="s">
+    <row r="57" spans="5:5">
+      <c r="E57" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="3:3">
-      <c r="C58" s="6" t="s">
+    <row r="58" spans="5:5">
+      <c r="E58" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="3:3">
-      <c r="C59" s="6" t="s">
+    <row r="59" spans="5:5">
+      <c r="E59" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="3:3">
-      <c r="C60" s="6" t="s">
+    <row r="60" spans="5:5">
+      <c r="E60" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="3:3">
-      <c r="C61" s="5" t="s">
+    <row r="61" spans="5:5">
+      <c r="E61" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="3:3">
-      <c r="C62" s="5" t="s">
+    <row r="62" spans="5:5">
+      <c r="E62" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="3:3">
-      <c r="C63" s="5" t="s">
+    <row r="63" spans="5:5">
+      <c r="E63" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="3:3">
-      <c r="C64" s="6" t="s">
+    <row r="64" spans="5:5">
+      <c r="E64" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
-      <c r="C65" s="6" t="s">
+    <row r="65" spans="5:5">
+      <c r="E65" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
-      <c r="C66" s="5" t="s">
+    <row r="66" spans="5:5">
+      <c r="E66" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
-      <c r="C67" s="5" t="s">
+    <row r="67" spans="5:5">
+      <c r="E67" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
-      <c r="C68" s="5" t="s">
+    <row r="68" spans="5:5">
+      <c r="E68" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
-      <c r="C69" s="5" t="s">
+    <row r="69" spans="5:5">
+      <c r="E69" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="3:3">
-      <c r="C70" s="8" t="s">
+    <row r="70" spans="5:5">
+      <c r="E70" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="3:3">
-      <c r="C71" s="8" t="s">
+    <row r="71" spans="5:5">
+      <c r="E71" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="3:3">
-      <c r="C72" s="6" t="s">
+    <row r="72" spans="5:5">
+      <c r="E72" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="3:3">
-      <c r="C73" s="6" t="s">
+    <row r="73" spans="5:5">
+      <c r="E73" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="3:3">
-      <c r="C74" s="6" t="s">
+    <row r="74" spans="5:5">
+      <c r="E74" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="3:3">
-      <c r="C75" s="5" t="s">
+    <row r="75" spans="5:5">
+      <c r="E75" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="3:3">
-      <c r="C76" s="5" t="s">
+    <row r="76" spans="5:5">
+      <c r="E76" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="3:3">
-      <c r="C77" s="5" t="s">
+    <row r="77" spans="5:5">
+      <c r="E77" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="3:3">
-      <c r="C78" s="5" t="s">
+    <row r="78" spans="5:5">
+      <c r="E78" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="3:3">
-      <c r="C79" s="6" t="s">
+    <row r="79" spans="5:5">
+      <c r="E79" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="3:3">
-      <c r="C80" s="6" t="s">
+    <row r="80" spans="5:5">
+      <c r="E80" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="3:3">
-      <c r="C81" s="6" t="s">
+    <row r="81" spans="5:5">
+      <c r="E81" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="3:3">
-      <c r="C82" s="6" t="s">
+    <row r="82" spans="5:5">
+      <c r="E82" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="83" spans="3:3">
-      <c r="C83" s="6" t="s">
+    <row r="83" spans="5:5">
+      <c r="E83" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="3:3">
-      <c r="C84" s="6" t="s">
+    <row r="84" spans="5:5">
+      <c r="E84" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="85" spans="3:3">
-      <c r="C85" s="6" t="s">
+    <row r="85" spans="5:5">
+      <c r="E85" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="3:3">
-      <c r="C86" s="6" t="s">
+    <row r="86" spans="5:5">
+      <c r="E86" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="87" spans="3:3">
-      <c r="C87" s="5" t="s">
+    <row r="87" spans="5:5">
+      <c r="E87" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="88" spans="3:3">
-      <c r="C88" s="5" t="s">
+    <row r="88" spans="5:5">
+      <c r="E88" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="3:3">
-      <c r="C89" s="6" t="s">
+    <row r="89" spans="5:5">
+      <c r="E89" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="3:3">
-      <c r="C90" s="5" t="s">
+    <row r="90" spans="5:5">
+      <c r="E90" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="3:3">
-      <c r="C91" s="5" t="s">
+    <row r="91" spans="5:5">
+      <c r="E91" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="3:3">
-      <c r="C92" s="6" t="s">
+    <row r="92" spans="5:5">
+      <c r="E92" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="3:3">
-      <c r="C93" s="6" t="s">
+    <row r="93" spans="5:5">
+      <c r="E93" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="94" spans="3:3">
-      <c r="C94" s="5" t="s">
+    <row r="94" spans="5:5">
+      <c r="E94" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="95" spans="3:3">
-      <c r="C95" s="6" t="s">
+    <row r="95" spans="5:5">
+      <c r="E95" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="3:3">
-      <c r="C96" s="5" t="s">
+    <row r="96" spans="5:5">
+      <c r="E96" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="97" spans="3:3">
-      <c r="C97" s="6" t="s">
+    <row r="97" spans="5:5">
+      <c r="E97" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="3:3">
-      <c r="C98" s="6" t="s">
+    <row r="98" spans="5:5">
+      <c r="E98" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="99" spans="3:3">
-      <c r="C99" s="5" t="s">
+    <row r="99" spans="5:5">
+      <c r="E99" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="3:3">
-      <c r="C100" s="5" t="s">
+    <row r="100" spans="5:5">
+      <c r="E100" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="101" spans="3:3">
-      <c r="C101" s="5" t="s">
+    <row r="101" spans="5:5">
+      <c r="E101" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="3:3">
-      <c r="C102" s="5" t="s">
+    <row r="102" spans="5:5">
+      <c r="E102" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="3:3">
-      <c r="C103" s="5" t="s">
+    <row r="103" spans="5:5">
+      <c r="E103" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="3:3">
-      <c r="C104" s="5" t="s">
+    <row r="104" spans="5:5">
+      <c r="E104" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1810,10 +1904,925 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D120"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="54.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B73" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B80" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B81" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B87" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B89" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B90" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B95" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B96" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B97" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B98" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B99" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B100" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B101" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B102" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B108" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B109" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B110" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B111" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B113" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B114" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B119" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B120" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Data/Xls files and READMEs/Study sites Kvitek WDFW NWFSC.xlsx
+++ b/Data/Xls files and READMEs/Study sites Kvitek WDFW NWFSC.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28421"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14140" tabRatio="500"/>
+    <workbookView xWindow="-51000" yWindow="60" windowWidth="38100" windowHeight="25120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -961,7 +961,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -971,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -980,7 +980,8 @@
     <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="86.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="89.5" customWidth="1"/>
+    <col min="7" max="7" width="41.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
